--- a/Production Manager Dashboard/Production_Dashboard_Zones.xlsx
+++ b/Production Manager Dashboard/Production_Dashboard_Zones.xlsx
@@ -10,6 +10,7 @@
     <sheet name="ZONE_CALCULATORS" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="RESOURCE_MGR" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="UPLOAD_READY_PRODUCTION" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CROSS_REFERENCE" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -62,7 +63,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -129,6 +130,12 @@
         <bgColor rgb="002F5496"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007030A0"/>
+        <bgColor rgb="007030A0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -148,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -204,6 +211,12 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -5780,4 +5793,257 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CROSS-REFERENCE SUMMARY - Upstream Dashboard KPIs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Key metrics from CMO (demand) and CPO (workforce) affecting production planning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="33" t="inlineStr">
+        <is>
+          <t>CMO (Marketing) - Demand Forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="25" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="B5" s="25" t="inlineStr">
+        <is>
+          <t>Demand</t>
+        </is>
+      </c>
+      <c r="C5" s="25" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="B6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="35" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="35" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Marketing Spend</t>
+        </is>
+      </c>
+      <c r="B12" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="37" t="inlineStr">
+        <is>
+          <t>CPO (People) - Workforce Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="B15" s="25" t="inlineStr">
+        <is>
+          <t>Workers</t>
+        </is>
+      </c>
+      <c r="C15" s="25" t="inlineStr">
+        <is>
+          <t>Capacity*</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="B16" s="34" t="n">
+        <v>219</v>
+      </c>
+      <c r="C16" s="38" t="n">
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B17" s="34" t="n">
+        <v>71</v>
+      </c>
+      <c r="C17" s="38" t="n">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B18" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B20" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Total Payroll Forecast</t>
+        </is>
+      </c>
+      <c r="B22" s="36" t="n">
+        <v>377000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Hiring Costs</t>
+        </is>
+      </c>
+      <c r="B23" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>* Capacity assumes 50 units/worker/fortnight</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>